--- a/DecisionNG/Test_Data.xlsx
+++ b/DecisionNG/Test_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\decision-auto-testing-7.3x\DecisionNG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE39C1A-8EC2-4361-AF9F-62A38F2B1F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C6C1E1-09CE-43AF-AC0D-BA00A7C2C200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{7DC03C03-E077-4EA9-9951-F44A4407C800}"/>
   </bookViews>
@@ -2177,8 +2177,8 @@
   <dimension ref="A1:P255"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A208" sqref="A208:XFD208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>"Tasks_AddFT_"&amp;E2&amp;"_"&amp;F2&amp;"_"&amp;G2&amp;"_"&amp;H2</f>
@@ -2301,7 +2301,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B3" s="2" t="str">
         <f>"Tasks_AddFT_"&amp;E3&amp;"_"&amp;F3&amp;"_"&amp;G3&amp;"_"&amp;H3</f>
@@ -2345,7 +2345,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B4" s="2" t="str">
         <f t="shared" ref="B4:B67" si="0">"Tasks_AddFT_"&amp;E4&amp;"_"&amp;F4&amp;"_"&amp;G4&amp;"_"&amp;H4</f>
@@ -2389,7 +2389,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2433,7 +2433,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2477,7 +2477,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2521,7 +2521,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2565,7 +2565,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2609,7 +2609,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B11" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2697,7 +2697,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2741,7 +2741,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B13" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2785,7 +2785,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B14" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2829,7 +2829,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B15" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2873,7 +2873,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B16" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2917,7 +2917,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B17" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2961,7 +2961,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B18" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3005,7 +3005,7 @@
     </row>
     <row r="19" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B19" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3049,7 +3049,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B20" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3093,7 +3093,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B21" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3137,7 +3137,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B22" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3181,7 +3181,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B23" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3225,7 +3225,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B24" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3269,7 +3269,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B25" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3313,7 +3313,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B26" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3357,7 +3357,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B27" s="2" t="str">
         <f>"Tasks_AddFT_"&amp;E27&amp;"_"&amp;F27&amp;"_"&amp;G27&amp;"_"&amp;H27</f>
@@ -3401,7 +3401,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B28" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3445,7 +3445,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B29" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3489,7 +3489,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B30" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3536,7 +3536,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B31" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3583,7 +3583,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B32" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3630,7 +3630,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B33" s="2" t="str">
         <f>"Tasks_AddFT_"&amp;E33&amp;"_"&amp;F33&amp;"_"&amp;G33&amp;"_"&amp;H33</f>
@@ -3677,7 +3677,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B34" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3721,7 +3721,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B35" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3768,7 +3768,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B36" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B37" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3862,7 +3862,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B38" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3909,7 +3909,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B39" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4000,7 +4000,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B41" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4047,7 +4047,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B42" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4094,7 +4094,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B43" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4141,7 +4141,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B44" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4188,7 +4188,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B45" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4235,7 +4235,7 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B46" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4282,7 +4282,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B47" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4329,7 +4329,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B48" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4376,7 +4376,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B49" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4420,7 +4420,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B50" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4464,7 +4464,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B51" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4508,7 +4508,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B52" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4552,7 +4552,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B53" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4596,7 +4596,7 @@
     </row>
     <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B54" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4643,7 +4643,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B55" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4690,7 +4690,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B56" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4737,7 +4737,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B57" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4781,7 +4781,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B58" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4828,7 +4828,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B59" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4875,7 +4875,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B60" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4966,7 +4966,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B62" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5010,7 +5010,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B63" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5057,7 +5057,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B64" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5104,7 +5104,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B65" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5151,7 +5151,7 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B66" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5198,7 +5198,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B67" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5289,7 +5289,7 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B69" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5336,7 +5336,7 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B70" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5383,7 +5383,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B71" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5430,7 +5430,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B72" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5477,7 +5477,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B73" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5524,7 +5524,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B74" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5571,7 +5571,7 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B75" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5618,7 +5618,7 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B76" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5665,7 +5665,7 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B77" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5709,7 +5709,7 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B78" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5753,7 +5753,7 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B79" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5797,7 +5797,7 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B80" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5841,7 +5841,7 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B81" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5885,7 +5885,7 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B82" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5932,7 +5932,7 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B83" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5979,7 +5979,7 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B84" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6070,7 +6070,7 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B86" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6117,7 +6117,7 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B87" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6164,7 +6164,7 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B88" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6211,7 +6211,7 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B89" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6255,7 +6255,7 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B90" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6299,7 +6299,7 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B91" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6346,7 +6346,7 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B92" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6393,7 +6393,7 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B93" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6440,7 +6440,7 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B94" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6487,7 +6487,7 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B95" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6578,7 +6578,7 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B97" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6625,7 +6625,7 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B98" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6672,7 +6672,7 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B99" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6719,7 +6719,7 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B100" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6766,7 +6766,7 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B101" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6813,7 +6813,7 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B102" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6860,7 +6860,7 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B103" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6907,7 +6907,7 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B104" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6954,7 +6954,7 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B105" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6998,7 +6998,7 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B106" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7042,7 +7042,7 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B107" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7086,7 +7086,7 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B108" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7130,7 +7130,7 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B109" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7174,7 +7174,7 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B110" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7221,7 +7221,7 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B111" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7268,7 +7268,7 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B112" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7359,7 +7359,7 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B114" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7403,7 +7403,7 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B115" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7447,7 +7447,7 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B116" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7491,7 +7491,7 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B117" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7535,7 +7535,7 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B118" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7579,7 +7579,7 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B119" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7623,7 +7623,7 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B120" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7667,7 +7667,7 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B121" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7711,7 +7711,7 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B122" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7755,7 +7755,7 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B123" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7799,7 +7799,7 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B124" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7843,7 +7843,7 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B125" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7887,7 +7887,7 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B126" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7931,7 +7931,7 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B127" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7975,7 +7975,7 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B128" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8019,7 +8019,7 @@
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B129" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8063,7 +8063,7 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B130" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8107,7 +8107,7 @@
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B131" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8151,7 +8151,7 @@
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B132" s="2" t="str">
         <f t="shared" ref="B132:B145" si="6">"Tasks_AddFT_"&amp;E132&amp;"_"&amp;F132&amp;"_"&amp;G132&amp;"_"&amp;H132</f>
@@ -8195,7 +8195,7 @@
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B133" s="2" t="str">
         <f t="shared" si="6"/>
@@ -8239,7 +8239,7 @@
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B134" s="2" t="str">
         <f t="shared" si="6"/>
@@ -8283,7 +8283,7 @@
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B135" s="2" t="str">
         <f t="shared" si="6"/>
@@ -8327,7 +8327,7 @@
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B136" s="2" t="str">
         <f t="shared" si="6"/>
@@ -8371,7 +8371,7 @@
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B137" s="2" t="str">
         <f t="shared" si="6"/>
@@ -8415,7 +8415,7 @@
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B138" s="2" t="str">
         <f t="shared" si="6"/>
@@ -8459,7 +8459,7 @@
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B139" s="2" t="str">
         <f t="shared" si="6"/>
@@ -8503,7 +8503,7 @@
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B140" s="2" t="str">
         <f t="shared" si="6"/>
@@ -8547,7 +8547,7 @@
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B141" s="2" t="str">
         <f t="shared" si="6"/>
@@ -8591,7 +8591,7 @@
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B142" s="2" t="str">
         <f t="shared" si="6"/>
@@ -8638,7 +8638,7 @@
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B143" s="2" t="str">
         <f t="shared" si="6"/>
@@ -8685,7 +8685,7 @@
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B144" s="2" t="str">
         <f t="shared" si="6"/>
@@ -8732,7 +8732,7 @@
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B145" s="2" t="str">
         <f t="shared" si="6"/>
@@ -8779,7 +8779,7 @@
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B146" s="2" t="str">
         <f>"Tasks_AddFT_"&amp;E146&amp;"_"&amp;F146&amp;"_"&amp;G146&amp;"_"&amp;H146</f>
@@ -8826,7 +8826,7 @@
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B147" s="2" t="str">
         <f t="shared" ref="B147:B210" si="9">"Tasks_AddFT_"&amp;E147&amp;"_"&amp;F147&amp;"_"&amp;G147&amp;"_"&amp;H147</f>
@@ -8873,7 +8873,7 @@
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B148" s="2" t="str">
         <f t="shared" si="9"/>
@@ -8920,7 +8920,7 @@
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B149" s="2" t="str">
         <f t="shared" si="9"/>
@@ -8967,7 +8967,7 @@
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B150" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9014,7 +9014,7 @@
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B151" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9108,7 +9108,7 @@
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B153" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9155,7 +9155,7 @@
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B154" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9202,7 +9202,7 @@
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B155" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9249,7 +9249,7 @@
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B156" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9296,7 +9296,7 @@
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B157" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9343,7 +9343,7 @@
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B158" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9390,7 +9390,7 @@
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B159" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9437,7 +9437,7 @@
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B160" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9484,7 +9484,7 @@
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B161" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9528,7 +9528,7 @@
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B162" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9572,7 +9572,7 @@
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B163" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9616,7 +9616,7 @@
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B164" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9660,7 +9660,7 @@
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B165" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9704,7 +9704,7 @@
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B166" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9751,7 +9751,7 @@
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B167" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9798,7 +9798,7 @@
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B168" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9845,7 +9845,7 @@
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B169" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9889,7 +9889,7 @@
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B170" s="2" t="str">
         <f>"Tasks_AddFT_"&amp;E170&amp;"_"&amp;F170&amp;"_"&amp;G170&amp;"_"&amp;H170</f>
@@ -9936,7 +9936,7 @@
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B171" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9983,7 +9983,7 @@
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B172" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10030,7 +10030,7 @@
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B173" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10077,7 +10077,7 @@
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B174" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10124,7 +10124,7 @@
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B175" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10171,7 +10171,7 @@
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B176" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10218,7 +10218,7 @@
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B177" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10265,7 +10265,7 @@
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B178" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10312,7 +10312,7 @@
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B179" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10406,7 +10406,7 @@
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B181" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10453,7 +10453,7 @@
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B182" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10500,7 +10500,7 @@
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B183" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10547,7 +10547,7 @@
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B184" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10594,7 +10594,7 @@
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B185" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10641,7 +10641,7 @@
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B186" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10688,7 +10688,7 @@
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B187" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10735,7 +10735,7 @@
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B188" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10782,7 +10782,7 @@
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B189" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10826,7 +10826,7 @@
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B190" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10870,7 +10870,7 @@
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B191" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10914,7 +10914,7 @@
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B192" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10958,7 +10958,7 @@
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B193" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11002,7 +11002,7 @@
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B194" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11049,7 +11049,7 @@
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B195" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11096,7 +11096,7 @@
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B196" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11187,7 +11187,7 @@
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B198" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11234,7 +11234,7 @@
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B199" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11281,7 +11281,7 @@
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B200" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11328,7 +11328,7 @@
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B201" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11372,7 +11372,7 @@
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B202" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11416,7 +11416,7 @@
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B203" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11463,7 +11463,7 @@
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B204" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11510,7 +11510,7 @@
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B205" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11557,7 +11557,7 @@
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B206" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11604,7 +11604,7 @@
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B207" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11695,7 +11695,7 @@
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B209" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11742,7 +11742,7 @@
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B210" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11789,7 +11789,7 @@
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B211" s="2" t="str">
         <f t="shared" ref="B211:B225" si="12">"Tasks_AddFT_"&amp;E211&amp;"_"&amp;F211&amp;"_"&amp;G211&amp;"_"&amp;H211</f>
@@ -11836,7 +11836,7 @@
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B212" s="2" t="str">
         <f t="shared" si="12"/>
@@ -11883,7 +11883,7 @@
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B213" s="2" t="str">
         <f t="shared" si="12"/>
@@ -11930,7 +11930,7 @@
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B214" s="2" t="str">
         <f t="shared" si="12"/>
@@ -11977,7 +11977,7 @@
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B215" s="2" t="str">
         <f t="shared" si="12"/>
@@ -12024,7 +12024,7 @@
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B216" s="2" t="str">
         <f t="shared" si="12"/>
@@ -12071,7 +12071,7 @@
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B217" s="2" t="str">
         <f t="shared" si="12"/>
@@ -12115,7 +12115,7 @@
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B218" s="2" t="str">
         <f t="shared" si="12"/>
@@ -12159,7 +12159,7 @@
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B219" s="2" t="str">
         <f t="shared" si="12"/>
@@ -12203,7 +12203,7 @@
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B220" s="2" t="str">
         <f t="shared" si="12"/>
@@ -12247,7 +12247,7 @@
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B221" s="2" t="str">
         <f t="shared" si="12"/>
@@ -12291,7 +12291,7 @@
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B222" s="2" t="str">
         <f t="shared" si="12"/>
@@ -12338,7 +12338,7 @@
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B223" s="2" t="str">
         <f t="shared" si="12"/>
@@ -12385,7 +12385,7 @@
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B224" s="2" t="str">
         <f t="shared" si="12"/>

--- a/DecisionNG/Test_Data.xlsx
+++ b/DecisionNG/Test_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\decision-auto-testing-7.3x\DecisionNG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C6C1E1-09CE-43AF-AC0D-BA00A7C2C200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E5C0B8-3E39-46BA-B988-FA3DE2616CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{7DC03C03-E077-4EA9-9951-F44A4407C800}"/>
   </bookViews>
@@ -2178,7 +2178,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A208" sqref="A208:XFD208"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2477,7 +2477,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2521,7 +2521,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2565,7 +2565,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2609,7 +2609,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B11" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2697,7 +2697,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2741,7 +2741,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B13" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2785,7 +2785,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B14" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2829,7 +2829,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B15" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2873,7 +2873,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B16" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2917,7 +2917,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B17" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2961,7 +2961,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B18" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3005,7 +3005,7 @@
     </row>
     <row r="19" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B19" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3049,7 +3049,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B20" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3093,7 +3093,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B21" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3137,7 +3137,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B22" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3181,7 +3181,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B23" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3225,7 +3225,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B24" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3269,7 +3269,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B25" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3313,7 +3313,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B26" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3357,7 +3357,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B27" s="2" t="str">
         <f>"Tasks_AddFT_"&amp;E27&amp;"_"&amp;F27&amp;"_"&amp;G27&amp;"_"&amp;H27</f>
@@ -3401,7 +3401,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B28" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3445,7 +3445,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B29" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3489,7 +3489,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B30" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3536,7 +3536,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B31" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3583,7 +3583,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B32" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3630,7 +3630,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B33" s="2" t="str">
         <f>"Tasks_AddFT_"&amp;E33&amp;"_"&amp;F33&amp;"_"&amp;G33&amp;"_"&amp;H33</f>
@@ -3677,7 +3677,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B34" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3721,7 +3721,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B35" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3768,7 +3768,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B36" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B37" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3862,7 +3862,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B38" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3909,7 +3909,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B39" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4000,7 +4000,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B41" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4047,7 +4047,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B42" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4094,7 +4094,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B43" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4141,7 +4141,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B44" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4188,7 +4188,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B45" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4235,7 +4235,7 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B46" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4282,7 +4282,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B47" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4329,7 +4329,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B48" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4376,7 +4376,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B49" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4420,7 +4420,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B50" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4464,7 +4464,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B51" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4508,7 +4508,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B52" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4552,7 +4552,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B53" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4596,7 +4596,7 @@
     </row>
     <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B54" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4643,7 +4643,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B55" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4690,7 +4690,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B56" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4737,7 +4737,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B57" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4781,7 +4781,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B58" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4828,7 +4828,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B59" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4875,7 +4875,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B60" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4922,7 +4922,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B61" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4966,7 +4966,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B62" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5010,7 +5010,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B63" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5057,7 +5057,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B64" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5104,7 +5104,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B65" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5151,7 +5151,7 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B66" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5198,7 +5198,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B67" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5289,7 +5289,7 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B69" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5336,7 +5336,7 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B70" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5383,7 +5383,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B71" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5430,7 +5430,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B72" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5477,7 +5477,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B73" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5524,7 +5524,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B74" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5571,7 +5571,7 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B75" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5618,7 +5618,7 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B76" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5665,7 +5665,7 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B77" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5709,7 +5709,7 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B78" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5753,7 +5753,7 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B79" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5797,7 +5797,7 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B80" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5841,7 +5841,7 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B81" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5885,7 +5885,7 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B82" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5932,7 +5932,7 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B83" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5979,7 +5979,7 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B84" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6070,7 +6070,7 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B86" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6117,7 +6117,7 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B87" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6164,7 +6164,7 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B88" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6211,7 +6211,7 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B89" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6255,7 +6255,7 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B90" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6299,7 +6299,7 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B91" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6346,7 +6346,7 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B92" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6393,7 +6393,7 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B93" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6439,8 +6439,8 @@
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>285</v>
+      <c r="A94" s="18" t="s">
+        <v>284</v>
       </c>
       <c r="B94" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6487,7 +6487,7 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B95" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6578,7 +6578,7 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B97" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6625,7 +6625,7 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B98" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6672,7 +6672,7 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B99" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6719,7 +6719,7 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B100" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6766,7 +6766,7 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B101" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6813,7 +6813,7 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B102" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6860,7 +6860,7 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B103" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6907,7 +6907,7 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B104" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6954,7 +6954,7 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B105" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6998,7 +6998,7 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B106" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7042,7 +7042,7 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B107" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7086,7 +7086,7 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B108" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7130,7 +7130,7 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B109" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7174,7 +7174,7 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B110" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7221,7 +7221,7 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B111" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7268,7 +7268,7 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B112" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7359,7 +7359,7 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B114" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7403,7 +7403,7 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B115" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7447,7 +7447,7 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B116" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7491,7 +7491,7 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B117" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7535,7 +7535,7 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B118" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7579,7 +7579,7 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B119" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7623,7 +7623,7 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B120" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7667,7 +7667,7 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B121" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7711,7 +7711,7 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B122" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7755,7 +7755,7 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B123" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7799,7 +7799,7 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B124" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7843,7 +7843,7 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B125" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7887,7 +7887,7 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B126" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7931,7 +7931,7 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B127" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7975,7 +7975,7 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B128" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8019,7 +8019,7 @@
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B129" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8063,7 +8063,7 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B130" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8107,7 +8107,7 @@
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B131" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8151,7 +8151,7 @@
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B132" s="2" t="str">
         <f t="shared" ref="B132:B145" si="6">"Tasks_AddFT_"&amp;E132&amp;"_"&amp;F132&amp;"_"&amp;G132&amp;"_"&amp;H132</f>
@@ -8195,7 +8195,7 @@
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B133" s="2" t="str">
         <f t="shared" si="6"/>
@@ -8239,7 +8239,7 @@
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B134" s="2" t="str">
         <f t="shared" si="6"/>
@@ -8283,7 +8283,7 @@
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B135" s="2" t="str">
         <f t="shared" si="6"/>
@@ -8327,7 +8327,7 @@
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B136" s="2" t="str">
         <f t="shared" si="6"/>
@@ -8371,7 +8371,7 @@
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B137" s="2" t="str">
         <f t="shared" si="6"/>
@@ -8415,7 +8415,7 @@
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B138" s="2" t="str">
         <f t="shared" si="6"/>
@@ -8459,7 +8459,7 @@
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B139" s="2" t="str">
         <f t="shared" si="6"/>
@@ -8503,7 +8503,7 @@
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B140" s="2" t="str">
         <f t="shared" si="6"/>
@@ -8547,7 +8547,7 @@
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B141" s="2" t="str">
         <f t="shared" si="6"/>
@@ -8591,7 +8591,7 @@
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B142" s="2" t="str">
         <f t="shared" si="6"/>
@@ -8638,7 +8638,7 @@
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B143" s="2" t="str">
         <f t="shared" si="6"/>
@@ -8685,7 +8685,7 @@
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B144" s="2" t="str">
         <f t="shared" si="6"/>
@@ -8732,7 +8732,7 @@
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B145" s="2" t="str">
         <f t="shared" si="6"/>
@@ -8779,7 +8779,7 @@
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B146" s="2" t="str">
         <f>"Tasks_AddFT_"&amp;E146&amp;"_"&amp;F146&amp;"_"&amp;G146&amp;"_"&amp;H146</f>
@@ -8826,7 +8826,7 @@
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B147" s="2" t="str">
         <f t="shared" ref="B147:B210" si="9">"Tasks_AddFT_"&amp;E147&amp;"_"&amp;F147&amp;"_"&amp;G147&amp;"_"&amp;H147</f>
@@ -8873,7 +8873,7 @@
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B148" s="2" t="str">
         <f t="shared" si="9"/>
@@ -8920,7 +8920,7 @@
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B149" s="2" t="str">
         <f t="shared" si="9"/>
@@ -8967,7 +8967,7 @@
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B150" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9014,7 +9014,7 @@
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B151" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9108,7 +9108,7 @@
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B153" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9155,7 +9155,7 @@
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B154" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9202,7 +9202,7 @@
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B155" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9249,7 +9249,7 @@
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B156" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9296,7 +9296,7 @@
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B157" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9343,7 +9343,7 @@
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B158" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9390,7 +9390,7 @@
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B159" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9437,7 +9437,7 @@
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B160" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9484,7 +9484,7 @@
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B161" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9528,7 +9528,7 @@
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B162" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9572,7 +9572,7 @@
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B163" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9616,7 +9616,7 @@
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B164" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9660,7 +9660,7 @@
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B165" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9704,7 +9704,7 @@
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B166" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9751,7 +9751,7 @@
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B167" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9798,7 +9798,7 @@
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B168" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9845,7 +9845,7 @@
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B169" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9889,7 +9889,7 @@
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B170" s="2" t="str">
         <f>"Tasks_AddFT_"&amp;E170&amp;"_"&amp;F170&amp;"_"&amp;G170&amp;"_"&amp;H170</f>
@@ -9936,7 +9936,7 @@
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B171" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9983,7 +9983,7 @@
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B172" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10030,7 +10030,7 @@
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B173" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10077,7 +10077,7 @@
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B174" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10124,7 +10124,7 @@
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B175" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10171,7 +10171,7 @@
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B176" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10218,7 +10218,7 @@
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B177" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10265,7 +10265,7 @@
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B178" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10312,7 +10312,7 @@
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B179" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10406,7 +10406,7 @@
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B181" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10453,7 +10453,7 @@
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B182" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10500,7 +10500,7 @@
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B183" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10547,7 +10547,7 @@
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B184" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10594,7 +10594,7 @@
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B185" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10641,7 +10641,7 @@
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B186" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10688,7 +10688,7 @@
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B187" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10735,7 +10735,7 @@
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B188" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10782,7 +10782,7 @@
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B189" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10826,7 +10826,7 @@
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B190" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10870,7 +10870,7 @@
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B191" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10914,7 +10914,7 @@
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B192" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10958,7 +10958,7 @@
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B193" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11002,7 +11002,7 @@
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B194" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11049,7 +11049,7 @@
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B195" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11096,7 +11096,7 @@
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B196" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11187,7 +11187,7 @@
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B198" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11234,7 +11234,7 @@
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B199" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11281,7 +11281,7 @@
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B200" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11328,7 +11328,7 @@
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B201" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11372,7 +11372,7 @@
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B202" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11416,7 +11416,7 @@
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B203" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11463,7 +11463,7 @@
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B204" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11510,7 +11510,7 @@
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B205" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11557,7 +11557,7 @@
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B206" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11604,7 +11604,7 @@
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B207" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11695,7 +11695,7 @@
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B209" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11742,7 +11742,7 @@
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B210" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11789,7 +11789,7 @@
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B211" s="2" t="str">
         <f t="shared" ref="B211:B225" si="12">"Tasks_AddFT_"&amp;E211&amp;"_"&amp;F211&amp;"_"&amp;G211&amp;"_"&amp;H211</f>
@@ -11836,7 +11836,7 @@
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B212" s="2" t="str">
         <f t="shared" si="12"/>
@@ -11883,7 +11883,7 @@
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B213" s="2" t="str">
         <f t="shared" si="12"/>
@@ -11930,7 +11930,7 @@
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B214" s="2" t="str">
         <f t="shared" si="12"/>
@@ -11977,7 +11977,7 @@
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B215" s="2" t="str">
         <f t="shared" si="12"/>
@@ -12024,7 +12024,7 @@
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B216" s="2" t="str">
         <f t="shared" si="12"/>
@@ -12071,7 +12071,7 @@
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B217" s="2" t="str">
         <f t="shared" si="12"/>
@@ -12115,7 +12115,7 @@
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B218" s="2" t="str">
         <f t="shared" si="12"/>
@@ -12159,7 +12159,7 @@
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B219" s="2" t="str">
         <f t="shared" si="12"/>
@@ -12203,7 +12203,7 @@
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B220" s="2" t="str">
         <f t="shared" si="12"/>
@@ -12247,7 +12247,7 @@
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B221" s="2" t="str">
         <f t="shared" si="12"/>
@@ -12291,7 +12291,7 @@
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B222" s="2" t="str">
         <f t="shared" si="12"/>
@@ -12338,7 +12338,7 @@
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B223" s="2" t="str">
         <f t="shared" si="12"/>
@@ -12385,7 +12385,7 @@
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B224" s="2" t="str">
         <f t="shared" si="12"/>
@@ -16671,8 +16671,8 @@
   <dimension ref="A1:AC99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16801,7 +16801,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>285</v>
@@ -16884,7 +16884,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>284</v>
@@ -16943,7 +16943,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>285</v>
@@ -17026,7 +17026,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>284</v>
@@ -17083,7 +17083,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>285</v>
@@ -17166,7 +17166,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>284</v>
@@ -17223,7 +17223,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>285</v>
@@ -17306,7 +17306,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>284</v>
@@ -17365,7 +17365,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>285</v>
@@ -17448,7 +17448,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>284</v>
@@ -17505,7 +17505,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>285</v>
@@ -17588,7 +17588,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>284</v>
@@ -17645,7 +17645,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>285</v>
@@ -17728,7 +17728,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>284</v>
@@ -17785,7 +17785,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>285</v>
@@ -17868,7 +17868,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>284</v>
@@ -17925,7 +17925,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>285</v>
@@ -18008,7 +18008,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>284</v>
@@ -18065,7 +18065,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>285</v>
@@ -18148,7 +18148,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>284</v>
@@ -18207,7 +18207,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>285</v>
@@ -18290,7 +18290,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>284</v>
@@ -18347,7 +18347,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>285</v>
@@ -18430,7 +18430,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>284</v>
@@ -18491,7 +18491,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>285</v>
@@ -18574,7 +18574,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>284</v>
@@ -18631,7 +18631,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>285</v>
@@ -18714,7 +18714,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>284</v>
@@ -18771,7 +18771,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>285</v>
@@ -18854,7 +18854,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>284</v>
@@ -18911,7 +18911,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>285</v>
@@ -18994,7 +18994,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>284</v>
@@ -19051,7 +19051,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>285</v>
@@ -19134,7 +19134,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>284</v>
@@ -19205,7 +19205,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>285</v>
@@ -19290,7 +19290,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>285</v>
@@ -19373,7 +19373,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>285</v>
@@ -19458,7 +19458,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>285</v>
@@ -19541,7 +19541,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>285</v>
@@ -19626,7 +19626,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>285</v>
@@ -19709,7 +19709,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C42" s="14" t="s">
         <v>285</v>
@@ -19792,7 +19792,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>285</v>
@@ -19875,7 +19875,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C44" s="14" t="s">
         <v>285</v>
@@ -19958,7 +19958,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C45" s="14" t="s">
         <v>285</v>
@@ -20041,7 +20041,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C46" s="14" t="s">
         <v>285</v>
@@ -20124,7 +20124,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>285</v>
@@ -20207,7 +20207,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C48" s="14" t="s">
         <v>285</v>
@@ -20290,7 +20290,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C49" s="14" t="s">
         <v>285</v>
@@ -20373,7 +20373,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C50" s="14" t="s">
         <v>285</v>
@@ -20622,7 +20622,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>285</v>
@@ -20705,7 +20705,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C54" s="14" t="s">
         <v>285</v>
@@ -20788,7 +20788,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C55" s="14" t="s">
         <v>285</v>
@@ -20871,7 +20871,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C56" s="14" t="s">
         <v>285</v>
@@ -20954,7 +20954,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C57" s="14" t="s">
         <v>285</v>
@@ -21037,7 +21037,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C58" s="14" t="s">
         <v>285</v>
@@ -21120,7 +21120,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C59" s="14" t="s">
         <v>285</v>
@@ -21203,7 +21203,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C60" s="14" t="s">
         <v>285</v>
@@ -21286,7 +21286,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C61" s="14" t="s">
         <v>285</v>
@@ -21369,7 +21369,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C62" s="14" t="s">
         <v>285</v>
@@ -21452,7 +21452,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C63" s="14" t="s">
         <v>285</v>
@@ -21535,7 +21535,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C64" s="14" t="s">
         <v>285</v>
@@ -21618,7 +21618,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C65" s="14" t="s">
         <v>285</v>
@@ -21701,7 +21701,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C66" s="14" t="s">
         <v>285</v>
@@ -21784,7 +21784,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C67" s="14" t="s">
         <v>285</v>
@@ -21867,7 +21867,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C68" s="14" t="s">
         <v>285</v>
@@ -21950,7 +21950,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C69" s="14" t="s">
         <v>285</v>
@@ -22033,7 +22033,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C70" s="14" t="s">
         <v>285</v>
@@ -22116,7 +22116,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C71" s="14" t="s">
         <v>285</v>
@@ -22199,7 +22199,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C72" s="14" t="s">
         <v>285</v>
@@ -22282,7 +22282,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C73" s="14" t="s">
         <v>285</v>
@@ -22365,7 +22365,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C74" s="14" t="s">
         <v>285</v>
@@ -22448,7 +22448,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C75" s="14" t="s">
         <v>285</v>
@@ -22531,7 +22531,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C76" s="14" t="s">
         <v>285</v>
@@ -22616,7 +22616,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C77" s="14" t="s">
         <v>285</v>
@@ -22701,7 +22701,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C78" s="14" t="s">
         <v>285</v>
@@ -22786,7 +22786,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C79" s="14" t="s">
         <v>285</v>
@@ -22871,7 +22871,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C80" s="14" t="s">
         <v>285</v>
@@ -22956,7 +22956,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C81" s="14" t="s">
         <v>285</v>
@@ -23039,7 +23039,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C82" s="14" t="s">
         <v>285</v>
@@ -23122,7 +23122,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C83" s="14" t="s">
         <v>285</v>
@@ -23205,7 +23205,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C84" s="14" t="s">
         <v>285</v>
@@ -23288,7 +23288,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C85" s="14" t="s">
         <v>285</v>
@@ -23371,7 +23371,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C86" s="14" t="s">
         <v>285</v>
@@ -23458,7 +23458,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C87" s="14" t="s">
         <v>285</v>
@@ -23541,7 +23541,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C88" s="14" t="s">
         <v>285</v>
@@ -23624,7 +23624,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C89" s="14" t="s">
         <v>285</v>
@@ -23707,7 +23707,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C90" s="14" t="s">
         <v>285</v>
@@ -23799,7 +23799,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C91" s="14" t="s">
         <v>285</v>
@@ -23882,7 +23882,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C92" s="14" t="s">
         <v>285</v>
@@ -23963,7 +23963,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C93" s="14" t="s">
         <v>285</v>
@@ -24046,7 +24046,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C94" s="14" t="s">
         <v>285</v>
@@ -24127,7 +24127,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C95" s="14" t="s">
         <v>285</v>
@@ -24210,7 +24210,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C96" s="14" t="s">
         <v>285</v>
@@ -24291,7 +24291,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C97" s="14" t="s">
         <v>285</v>
@@ -24372,7 +24372,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C98" s="14" t="s">
         <v>285</v>
@@ -24453,7 +24453,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C99" s="14" t="s">
         <v>285</v>

--- a/DecisionNG/Test_Data.xlsx
+++ b/DecisionNG/Test_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\decision-auto-testing-7.3x\DecisionNG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E5C0B8-3E39-46BA-B988-FA3DE2616CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4749247-E39C-41BD-94EE-4E5520AE8670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{7DC03C03-E077-4EA9-9951-F44A4407C800}"/>
   </bookViews>
@@ -21,6 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreateNewFactTypeData!$A$1:$N$225</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ImportGlossary!$H$1:$H$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">MDCustomProperty!$A$1:$A$225</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1864,7 +1865,16 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2178,7 +2188,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2477,7 +2487,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2521,7 +2531,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2565,7 +2575,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2609,7 +2619,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2653,7 +2663,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B11" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2697,7 +2707,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2741,7 +2751,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B13" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2785,7 +2795,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B14" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2829,7 +2839,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B15" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2873,7 +2883,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B16" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2917,7 +2927,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B17" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2961,7 +2971,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B18" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3005,7 +3015,7 @@
     </row>
     <row r="19" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B19" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3049,7 +3059,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B20" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3093,7 +3103,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B21" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3137,7 +3147,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B22" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3181,7 +3191,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B23" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3225,7 +3235,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B24" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3269,7 +3279,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B25" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3313,7 +3323,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B26" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3357,7 +3367,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B27" s="2" t="str">
         <f>"Tasks_AddFT_"&amp;E27&amp;"_"&amp;F27&amp;"_"&amp;G27&amp;"_"&amp;H27</f>
@@ -3401,7 +3411,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B28" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3445,7 +3455,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B29" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3489,7 +3499,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B30" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3536,7 +3546,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B31" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3583,7 +3593,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B32" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3630,7 +3640,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B33" s="2" t="str">
         <f>"Tasks_AddFT_"&amp;E33&amp;"_"&amp;F33&amp;"_"&amp;G33&amp;"_"&amp;H33</f>
@@ -3677,7 +3687,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B34" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3721,7 +3731,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B35" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3768,7 +3778,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B36" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3815,7 +3825,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B37" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3862,7 +3872,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B38" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3909,7 +3919,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B39" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3956,7 +3966,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B40" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3971,7 +3981,7 @@
       <c r="E40" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F40" s="18" t="s">
+      <c r="F40" s="2" t="s">
         <v>259</v>
       </c>
       <c r="G40" s="2" t="s">
@@ -4000,7 +4010,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B41" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4047,7 +4057,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B42" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4094,7 +4104,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B43" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4141,7 +4151,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B44" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4188,7 +4198,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B45" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4235,7 +4245,7 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B46" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4282,7 +4292,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B47" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4329,7 +4339,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B48" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4376,7 +4386,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B49" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4420,7 +4430,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B50" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4464,7 +4474,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B51" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4508,7 +4518,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B52" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4552,7 +4562,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B53" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4596,7 +4606,7 @@
     </row>
     <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B54" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4643,7 +4653,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B55" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4690,7 +4700,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B56" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4737,7 +4747,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B57" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4781,7 +4791,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B58" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4828,7 +4838,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B59" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4875,7 +4885,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B60" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4922,7 +4932,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B61" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4966,7 +4976,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B62" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5010,7 +5020,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B63" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5057,7 +5067,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B64" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5104,7 +5114,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B65" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5166,7 +5176,7 @@
       <c r="E66" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="F66" s="18" t="s">
         <v>256</v>
       </c>
       <c r="G66" s="2" t="s">
@@ -5198,7 +5208,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B67" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5289,7 +5299,7 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B69" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5336,7 +5346,7 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B70" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5383,7 +5393,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B71" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5430,7 +5440,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B72" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5477,7 +5487,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B73" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5524,7 +5534,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B74" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5571,7 +5581,7 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B75" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5618,7 +5628,7 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B76" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5665,7 +5675,7 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B77" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5709,7 +5719,7 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B78" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5753,7 +5763,7 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B79" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5797,7 +5807,7 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B80" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5841,7 +5851,7 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B81" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5885,7 +5895,7 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B82" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5932,7 +5942,7 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B83" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5979,7 +5989,7 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B84" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6026,7 +6036,7 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B85" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6041,7 +6051,7 @@
       <c r="E85" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F85" s="18" t="s">
+      <c r="F85" s="2" t="s">
         <v>259</v>
       </c>
       <c r="G85" s="2" t="s">
@@ -6070,7 +6080,7 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B86" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6117,7 +6127,7 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B87" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6164,7 +6174,7 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B88" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6211,7 +6221,7 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B89" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6255,7 +6265,7 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B90" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6299,7 +6309,7 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B91" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6346,7 +6356,7 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B92" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6393,7 +6403,7 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B93" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6439,7 +6449,7 @@
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="18" t="s">
+      <c r="A94" s="2" t="s">
         <v>284</v>
       </c>
       <c r="B94" s="2" t="str">
@@ -6487,7 +6497,7 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B95" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6578,7 +6588,7 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B97" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6625,7 +6635,7 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B98" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6672,7 +6682,7 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B99" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6719,7 +6729,7 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B100" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6766,7 +6776,7 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B101" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6813,7 +6823,7 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B102" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6860,7 +6870,7 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B103" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6907,7 +6917,7 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B104" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6954,7 +6964,7 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B105" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6998,7 +7008,7 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B106" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7042,7 +7052,7 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B107" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7086,7 +7096,7 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B108" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7130,7 +7140,7 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B109" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7174,7 +7184,7 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B110" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7221,7 +7231,7 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B111" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7268,7 +7278,7 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B112" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7315,7 +7325,7 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B113" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7330,7 +7340,7 @@
       <c r="E113" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F113" s="18" t="s">
+      <c r="F113" s="2" t="s">
         <v>259</v>
       </c>
       <c r="G113" s="2" t="s">
@@ -7359,7 +7369,7 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B114" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7403,7 +7413,7 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B115" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7447,7 +7457,7 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B116" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7491,7 +7501,7 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B117" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7535,7 +7545,7 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B118" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7579,7 +7589,7 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B119" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7623,7 +7633,7 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B120" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7667,7 +7677,7 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B121" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7711,7 +7721,7 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B122" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7755,7 +7765,7 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B123" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7799,7 +7809,7 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B124" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7843,7 +7853,7 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B125" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7887,7 +7897,7 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B126" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7931,7 +7941,7 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B127" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7975,7 +7985,7 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B128" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8019,7 +8029,7 @@
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B129" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8063,7 +8073,7 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B130" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8107,7 +8117,7 @@
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B131" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8151,7 +8161,7 @@
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B132" s="2" t="str">
         <f t="shared" ref="B132:B145" si="6">"Tasks_AddFT_"&amp;E132&amp;"_"&amp;F132&amp;"_"&amp;G132&amp;"_"&amp;H132</f>
@@ -8195,7 +8205,7 @@
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B133" s="2" t="str">
         <f t="shared" si="6"/>
@@ -8239,7 +8249,7 @@
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B134" s="2" t="str">
         <f t="shared" si="6"/>
@@ -8283,7 +8293,7 @@
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B135" s="2" t="str">
         <f t="shared" si="6"/>
@@ -8327,7 +8337,7 @@
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B136" s="2" t="str">
         <f t="shared" si="6"/>
@@ -8371,7 +8381,7 @@
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B137" s="2" t="str">
         <f t="shared" si="6"/>
@@ -8415,7 +8425,7 @@
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B138" s="2" t="str">
         <f t="shared" si="6"/>
@@ -8459,7 +8469,7 @@
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B139" s="2" t="str">
         <f t="shared" si="6"/>
@@ -8503,7 +8513,7 @@
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B140" s="2" t="str">
         <f t="shared" si="6"/>
@@ -8547,7 +8557,7 @@
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B141" s="2" t="str">
         <f t="shared" si="6"/>
@@ -8591,7 +8601,7 @@
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B142" s="2" t="str">
         <f t="shared" si="6"/>
@@ -8638,7 +8648,7 @@
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B143" s="2" t="str">
         <f t="shared" si="6"/>
@@ -8685,7 +8695,7 @@
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B144" s="2" t="str">
         <f t="shared" si="6"/>
@@ -8732,7 +8742,7 @@
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B145" s="2" t="str">
         <f t="shared" si="6"/>
@@ -8779,7 +8789,7 @@
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B146" s="2" t="str">
         <f>"Tasks_AddFT_"&amp;E146&amp;"_"&amp;F146&amp;"_"&amp;G146&amp;"_"&amp;H146</f>
@@ -8826,7 +8836,7 @@
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B147" s="2" t="str">
         <f t="shared" ref="B147:B210" si="9">"Tasks_AddFT_"&amp;E147&amp;"_"&amp;F147&amp;"_"&amp;G147&amp;"_"&amp;H147</f>
@@ -8873,7 +8883,7 @@
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B148" s="2" t="str">
         <f t="shared" si="9"/>
@@ -8920,7 +8930,7 @@
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B149" s="2" t="str">
         <f t="shared" si="9"/>
@@ -8967,7 +8977,7 @@
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B150" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9014,7 +9024,7 @@
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B151" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9061,7 +9071,7 @@
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B152" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9076,7 +9086,7 @@
       <c r="E152" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="F152" s="18" t="s">
+      <c r="F152" s="2" t="s">
         <v>259</v>
       </c>
       <c r="G152" s="2" t="s">
@@ -9108,7 +9118,7 @@
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B153" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9155,7 +9165,7 @@
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B154" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9202,7 +9212,7 @@
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B155" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9249,7 +9259,7 @@
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B156" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9296,7 +9306,7 @@
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B157" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9343,7 +9353,7 @@
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B158" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9390,7 +9400,7 @@
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B159" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9437,7 +9447,7 @@
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B160" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9484,7 +9494,7 @@
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B161" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9528,7 +9538,7 @@
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B162" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9572,7 +9582,7 @@
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B163" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9616,7 +9626,7 @@
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B164" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9660,7 +9670,7 @@
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B165" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9704,7 +9714,7 @@
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B166" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9751,7 +9761,7 @@
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B167" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9798,7 +9808,7 @@
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B168" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9845,7 +9855,7 @@
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B169" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9889,7 +9899,7 @@
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B170" s="2" t="str">
         <f>"Tasks_AddFT_"&amp;E170&amp;"_"&amp;F170&amp;"_"&amp;G170&amp;"_"&amp;H170</f>
@@ -9936,7 +9946,7 @@
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B171" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9983,7 +9993,7 @@
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B172" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10030,7 +10040,7 @@
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B173" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10077,7 +10087,7 @@
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B174" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10124,7 +10134,7 @@
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B175" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10171,7 +10181,7 @@
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B176" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10218,7 +10228,7 @@
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B177" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10265,7 +10275,7 @@
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B178" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10312,7 +10322,7 @@
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B179" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10406,7 +10416,7 @@
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B181" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10453,7 +10463,7 @@
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B182" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10500,7 +10510,7 @@
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B183" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10547,7 +10557,7 @@
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B184" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10594,7 +10604,7 @@
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B185" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10641,7 +10651,7 @@
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B186" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10688,7 +10698,7 @@
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B187" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10735,7 +10745,7 @@
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B188" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10782,7 +10792,7 @@
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B189" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10826,7 +10836,7 @@
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B190" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10870,7 +10880,7 @@
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B191" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10914,7 +10924,7 @@
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B192" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10958,7 +10968,7 @@
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B193" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11002,7 +11012,7 @@
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B194" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11049,7 +11059,7 @@
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B195" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11096,7 +11106,7 @@
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B196" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11143,7 +11153,7 @@
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B197" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11158,7 +11168,7 @@
       <c r="E197" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="F197" s="18" t="s">
+      <c r="F197" s="2" t="s">
         <v>259</v>
       </c>
       <c r="G197" s="2" t="s">
@@ -11187,7 +11197,7 @@
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B198" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11234,7 +11244,7 @@
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B199" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11281,7 +11291,7 @@
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B200" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11328,7 +11338,7 @@
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B201" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11372,7 +11382,7 @@
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B202" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11416,7 +11426,7 @@
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B203" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11463,7 +11473,7 @@
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B204" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11510,7 +11520,7 @@
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B205" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11557,7 +11567,7 @@
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B206" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11604,7 +11614,7 @@
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B207" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11695,7 +11705,7 @@
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B209" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11742,7 +11752,7 @@
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B210" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11789,7 +11799,7 @@
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B211" s="2" t="str">
         <f t="shared" ref="B211:B225" si="12">"Tasks_AddFT_"&amp;E211&amp;"_"&amp;F211&amp;"_"&amp;G211&amp;"_"&amp;H211</f>
@@ -11836,7 +11846,7 @@
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B212" s="2" t="str">
         <f t="shared" si="12"/>
@@ -11883,7 +11893,7 @@
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B213" s="2" t="str">
         <f t="shared" si="12"/>
@@ -11930,7 +11940,7 @@
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B214" s="2" t="str">
         <f t="shared" si="12"/>
@@ -11977,7 +11987,7 @@
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B215" s="2" t="str">
         <f t="shared" si="12"/>
@@ -12024,7 +12034,7 @@
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B216" s="2" t="str">
         <f t="shared" si="12"/>
@@ -12071,7 +12081,7 @@
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B217" s="2" t="str">
         <f t="shared" si="12"/>
@@ -12115,7 +12125,7 @@
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B218" s="2" t="str">
         <f t="shared" si="12"/>
@@ -12159,7 +12169,7 @@
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B219" s="2" t="str">
         <f t="shared" si="12"/>
@@ -12203,7 +12213,7 @@
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B220" s="2" t="str">
         <f t="shared" si="12"/>
@@ -12247,7 +12257,7 @@
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B221" s="2" t="str">
         <f t="shared" si="12"/>
@@ -12291,7 +12301,7 @@
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B222" s="2" t="str">
         <f t="shared" si="12"/>
@@ -12338,7 +12348,7 @@
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B223" s="2" t="str">
         <f t="shared" si="12"/>
@@ -12385,7 +12395,7 @@
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B224" s="2" t="str">
         <f t="shared" si="12"/>
@@ -12432,7 +12442,7 @@
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B225" s="2" t="str">
         <f t="shared" si="12"/>
@@ -12447,7 +12457,7 @@
       <c r="E225" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="F225" s="18" t="s">
+      <c r="F225" s="2" t="s">
         <v>259</v>
       </c>
       <c r="G225" s="2" t="s">
@@ -12576,10 +12586,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4B8B31-2AAE-44BA-89F6-0DC376B598C9}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I225"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="38" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12621,7 +12633,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>284</v>
       </c>
@@ -12646,7 +12658,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>284</v>
       </c>
@@ -12671,7 +12683,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>284</v>
       </c>
@@ -12696,7 +12708,7 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>284</v>
       </c>
@@ -12721,7 +12733,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>284</v>
       </c>
@@ -12746,7 +12758,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>284</v>
       </c>
@@ -12771,7 +12783,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>284</v>
       </c>
@@ -12796,7 +12808,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>284</v>
       </c>
@@ -12821,7 +12833,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>284</v>
       </c>
@@ -12848,7 +12860,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>284</v>
       </c>
@@ -12873,7 +12885,7 @@
       </c>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>284</v>
       </c>
@@ -12898,7 +12910,7 @@
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>284</v>
       </c>
@@ -12923,7 +12935,7 @@
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>284</v>
       </c>
@@ -12948,7 +12960,7 @@
       </c>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>284</v>
       </c>
@@ -12973,7 +12985,7 @@
       </c>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>284</v>
       </c>
@@ -12998,7 +13010,7 @@
       </c>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>284</v>
       </c>
@@ -13023,7 +13035,7 @@
       </c>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>284</v>
       </c>
@@ -13048,7 +13060,7 @@
       </c>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>284</v>
       </c>
@@ -13073,7 +13085,7 @@
       </c>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>284</v>
       </c>
@@ -13098,7 +13110,7 @@
       </c>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>284</v>
       </c>
@@ -13123,7 +13135,7 @@
       </c>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>284</v>
       </c>
@@ -13148,7 +13160,7 @@
       </c>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>284</v>
       </c>
@@ -13173,7 +13185,7 @@
       </c>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>284</v>
       </c>
@@ -13198,7 +13210,7 @@
       </c>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>284</v>
       </c>
@@ -13223,7 +13235,7 @@
       </c>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>284</v>
       </c>
@@ -13248,7 +13260,7 @@
       </c>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>284</v>
       </c>
@@ -13273,7 +13285,7 @@
       </c>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>284</v>
       </c>
@@ -13298,7 +13310,7 @@
       </c>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>284</v>
       </c>
@@ -13323,7 +13335,7 @@
       </c>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>284</v>
       </c>
@@ -13350,7 +13362,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>284</v>
       </c>
@@ -13377,7 +13389,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>284</v>
       </c>
@@ -13404,7 +13416,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>284</v>
       </c>
@@ -13429,7 +13441,7 @@
       </c>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>284</v>
       </c>
@@ -13457,7 +13469,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>284</v>
       </c>
@@ -13484,7 +13496,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>284</v>
       </c>
@@ -13511,7 +13523,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>284</v>
       </c>
@@ -13538,7 +13550,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>284</v>
       </c>
@@ -13644,9 +13656,9 @@
         <v>288</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B42" s="2">
         <v>41</v>
@@ -13698,9 +13710,9 @@
         <v>287</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B44" s="2">
         <v>43</v>
@@ -13725,9 +13737,9 @@
         <v>287</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B45" s="2">
         <v>44</v>
@@ -13779,9 +13791,9 @@
         <v>305</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B47" s="2">
         <v>46</v>
@@ -13858,9 +13870,9 @@
       </c>
       <c r="H49" s="2"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B50" s="2">
         <v>49</v>
@@ -13883,9 +13895,9 @@
       </c>
       <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B51" s="2">
         <v>50</v>
@@ -13908,9 +13920,9 @@
       </c>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B52" s="2">
         <v>51</v>
@@ -14012,9 +14024,9 @@
         <v>299</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B56" s="2">
         <v>55</v>
@@ -14039,9 +14051,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B57" s="2">
         <v>56</v>
@@ -14118,9 +14130,9 @@
         <v>289</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B60" s="2">
         <v>59</v>
@@ -14145,9 +14157,9 @@
         <v>290</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B61" s="2">
         <v>60</v>
@@ -14170,9 +14182,9 @@
       </c>
       <c r="H61" s="2"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B62" s="2">
         <v>61</v>
@@ -14222,9 +14234,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B64" s="2">
         <v>63</v>
@@ -14249,9 +14261,9 @@
         <v>290</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B65" s="2">
         <v>64</v>
@@ -14355,9 +14367,9 @@
       </c>
       <c r="H68" s="2"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B69" s="2">
         <v>68</v>
@@ -14382,9 +14394,9 @@
         <v>290</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B70" s="2">
         <v>69</v>
@@ -14409,9 +14421,9 @@
         <v>289</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B71" s="2">
         <v>70</v>
@@ -14463,9 +14475,9 @@
         <v>289</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B73" s="2">
         <v>72</v>
@@ -14490,9 +14502,9 @@
         <v>290</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B74" s="2">
         <v>73</v>
@@ -14517,9 +14529,9 @@
         <v>446</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B75" s="2">
         <v>74</v>
@@ -14571,9 +14583,9 @@
         <v>289</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B77" s="2">
         <v>76</v>
@@ -14596,9 +14608,9 @@
       </c>
       <c r="H77" s="2"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B78" s="2">
         <v>77</v>
@@ -14621,9 +14633,9 @@
       </c>
       <c r="H78" s="2"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B79" s="2">
         <v>78</v>
@@ -14671,9 +14683,9 @@
       </c>
       <c r="H80" s="2"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B81" s="2">
         <v>80</v>
@@ -14723,9 +14735,9 @@
         <v>448</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B83" s="2">
         <v>82</v>
@@ -14802,9 +14814,9 @@
       </c>
       <c r="H85" s="2"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B86" s="2">
         <v>85</v>
@@ -14933,9 +14945,9 @@
       </c>
       <c r="H90" s="2"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B91" s="2">
         <v>90</v>
@@ -14960,7 +14972,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>284</v>
       </c>
@@ -15014,7 +15026,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>284</v>
       </c>
@@ -15041,9 +15053,9 @@
         <v>290</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B95" s="2">
         <v>94</v>
@@ -15120,9 +15132,9 @@
         <v>290</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B98" s="2">
         <v>97</v>
@@ -15174,9 +15186,9 @@
         <v>289</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B100" s="2">
         <v>99</v>
@@ -15228,9 +15240,9 @@
         <v>290</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B102" s="2">
         <v>101</v>
@@ -15282,9 +15294,9 @@
         <v>289</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B104" s="2">
         <v>103</v>
@@ -15334,9 +15346,9 @@
       </c>
       <c r="H105" s="2"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B106" s="2">
         <v>105</v>
@@ -15359,9 +15371,9 @@
       </c>
       <c r="H106" s="2"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B107" s="2">
         <v>106</v>
@@ -15461,9 +15473,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B111" s="2">
         <v>110</v>
@@ -15515,9 +15527,9 @@
         <v>303</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B113" s="2">
         <v>112</v>
@@ -15540,7 +15552,7 @@
       </c>
       <c r="H113" s="2"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -15550,7 +15562,7 @@
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -15560,7 +15572,7 @@
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -15570,7 +15582,7 @@
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -15580,7 +15592,7 @@
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -15590,7 +15602,7 @@
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -15600,7 +15612,7 @@
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -15610,7 +15622,7 @@
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -15620,7 +15632,7 @@
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -15630,7 +15642,7 @@
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -15640,7 +15652,7 @@
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -15650,7 +15662,7 @@
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -15660,7 +15672,7 @@
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -15670,7 +15682,7 @@
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -15680,7 +15692,7 @@
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -15690,7 +15702,7 @@
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -15700,7 +15712,7 @@
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -15710,7 +15722,7 @@
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -15720,7 +15732,7 @@
       <c r="G131" s="5"/>
       <c r="H131" s="5"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -15730,7 +15742,7 @@
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -15740,7 +15752,7 @@
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -15750,7 +15762,7 @@
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -15760,7 +15772,7 @@
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -15770,7 +15782,7 @@
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -15780,7 +15792,7 @@
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -15790,7 +15802,7 @@
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -15800,7 +15812,7 @@
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -15810,7 +15822,7 @@
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -15820,7 +15832,7 @@
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -15830,7 +15842,7 @@
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -15840,7 +15852,7 @@
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -15850,7 +15862,7 @@
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -15860,7 +15872,7 @@
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -15870,7 +15882,7 @@
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -15880,7 +15892,7 @@
       <c r="G147" s="2"/>
       <c r="H147" s="2"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -15890,7 +15902,7 @@
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -15900,7 +15912,7 @@
       <c r="G149" s="2"/>
       <c r="H149" s="2"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -15910,7 +15922,7 @@
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -15920,7 +15932,7 @@
       <c r="G151" s="2"/>
       <c r="H151" s="2"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -15930,7 +15942,7 @@
       <c r="G152" s="2"/>
       <c r="H152" s="2"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -15940,7 +15952,7 @@
       <c r="G153" s="2"/>
       <c r="H153" s="2"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -15950,7 +15962,7 @@
       <c r="G154" s="2"/>
       <c r="H154" s="2"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -15960,7 +15972,7 @@
       <c r="G155" s="2"/>
       <c r="H155" s="2"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -15970,7 +15982,7 @@
       <c r="G156" s="2"/>
       <c r="H156" s="2"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -15980,7 +15992,7 @@
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -15990,7 +16002,7 @@
       <c r="G158" s="2"/>
       <c r="H158" s="3"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -16000,7 +16012,7 @@
       <c r="G159" s="2"/>
       <c r="H159" s="2"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -16010,7 +16022,7 @@
       <c r="G160" s="2"/>
       <c r="H160" s="2"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -16020,7 +16032,7 @@
       <c r="G161" s="2"/>
       <c r="H161" s="2"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -16030,7 +16042,7 @@
       <c r="G162" s="2"/>
       <c r="H162" s="2"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -16040,7 +16052,7 @@
       <c r="G163" s="2"/>
       <c r="H163" s="2"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -16050,7 +16062,7 @@
       <c r="G164" s="2"/>
       <c r="H164" s="2"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -16060,7 +16072,7 @@
       <c r="G165" s="2"/>
       <c r="H165" s="2"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -16070,7 +16082,7 @@
       <c r="G166" s="2"/>
       <c r="H166" s="7"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -16080,7 +16092,7 @@
       <c r="G167" s="2"/>
       <c r="H167" s="2"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -16090,7 +16102,7 @@
       <c r="G168" s="2"/>
       <c r="H168" s="2"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -16100,7 +16112,7 @@
       <c r="G169" s="2"/>
       <c r="H169" s="2"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -16110,7 +16122,7 @@
       <c r="G170" s="2"/>
       <c r="H170" s="2"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -16120,7 +16132,7 @@
       <c r="G171" s="2"/>
       <c r="H171" s="2"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -16130,7 +16142,7 @@
       <c r="G172" s="2"/>
       <c r="H172" s="2"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -16140,7 +16152,7 @@
       <c r="G173" s="2"/>
       <c r="H173" s="2"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -16150,7 +16162,7 @@
       <c r="G174" s="2"/>
       <c r="H174" s="2"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -16160,7 +16172,7 @@
       <c r="G175" s="2"/>
       <c r="H175" s="2"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -16170,7 +16182,7 @@
       <c r="G176" s="2"/>
       <c r="H176" s="2"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -16180,7 +16192,7 @@
       <c r="G177" s="2"/>
       <c r="H177" s="2"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -16190,7 +16202,7 @@
       <c r="G178" s="2"/>
       <c r="H178" s="2"/>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -16200,7 +16212,7 @@
       <c r="G179" s="2"/>
       <c r="H179" s="2"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -16210,7 +16222,7 @@
       <c r="G180" s="2"/>
       <c r="H180" s="2"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -16220,7 +16232,7 @@
       <c r="G181" s="2"/>
       <c r="H181" s="2"/>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -16230,7 +16242,7 @@
       <c r="G182" s="2"/>
       <c r="H182" s="2"/>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -16240,7 +16252,7 @@
       <c r="G183" s="2"/>
       <c r="H183" s="2"/>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -16250,7 +16262,7 @@
       <c r="G184" s="2"/>
       <c r="H184" s="2"/>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -16260,7 +16272,7 @@
       <c r="G185" s="2"/>
       <c r="H185" s="2"/>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -16270,7 +16282,7 @@
       <c r="G186" s="2"/>
       <c r="H186" s="3"/>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -16280,7 +16292,7 @@
       <c r="G187" s="2"/>
       <c r="H187" s="2"/>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -16290,7 +16302,7 @@
       <c r="G188" s="2"/>
       <c r="H188" s="2"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -16300,7 +16312,7 @@
       <c r="G189" s="2"/>
       <c r="H189" s="2"/>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -16310,7 +16322,7 @@
       <c r="G190" s="2"/>
       <c r="H190" s="2"/>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -16320,7 +16332,7 @@
       <c r="G191" s="2"/>
       <c r="H191" s="2"/>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -16330,7 +16342,7 @@
       <c r="G192" s="2"/>
       <c r="H192" s="2"/>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -16340,7 +16352,7 @@
       <c r="G193" s="2"/>
       <c r="H193" s="2"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -16350,7 +16362,7 @@
       <c r="G194" s="2"/>
       <c r="H194" s="2"/>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -16360,7 +16372,7 @@
       <c r="G195" s="2"/>
       <c r="H195" s="2"/>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -16370,7 +16382,7 @@
       <c r="G196" s="2"/>
       <c r="H196" s="2"/>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -16380,7 +16392,7 @@
       <c r="G197" s="2"/>
       <c r="H197" s="2"/>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -16390,7 +16402,7 @@
       <c r="G198" s="2"/>
       <c r="H198" s="2"/>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -16400,7 +16412,7 @@
       <c r="G199" s="2"/>
       <c r="H199" s="2"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -16410,7 +16422,7 @@
       <c r="G200" s="2"/>
       <c r="H200" s="2"/>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -16420,7 +16432,7 @@
       <c r="G201" s="2"/>
       <c r="H201" s="2"/>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -16430,7 +16442,7 @@
       <c r="G202" s="2"/>
       <c r="H202" s="2"/>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -16440,7 +16452,7 @@
       <c r="G203" s="2"/>
       <c r="H203" s="2"/>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -16450,7 +16462,7 @@
       <c r="G204" s="2"/>
       <c r="H204" s="2"/>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -16460,7 +16472,7 @@
       <c r="G205" s="2"/>
       <c r="H205" s="2"/>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -16470,7 +16482,7 @@
       <c r="G206" s="2"/>
       <c r="H206" s="2"/>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -16480,7 +16492,7 @@
       <c r="G207" s="2"/>
       <c r="H207" s="2"/>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -16490,7 +16502,7 @@
       <c r="G208" s="2"/>
       <c r="H208" s="2"/>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -16500,7 +16512,7 @@
       <c r="G209" s="2"/>
       <c r="H209" s="2"/>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -16510,7 +16522,7 @@
       <c r="G210" s="2"/>
       <c r="H210" s="2"/>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -16520,7 +16532,7 @@
       <c r="G211" s="2"/>
       <c r="H211" s="2"/>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -16530,7 +16542,7 @@
       <c r="G212" s="2"/>
       <c r="H212" s="2"/>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -16540,7 +16552,7 @@
       <c r="G213" s="2"/>
       <c r="H213" s="2"/>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -16550,7 +16562,7 @@
       <c r="G214" s="2"/>
       <c r="H214" s="3"/>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -16560,7 +16572,7 @@
       <c r="G215" s="2"/>
       <c r="H215" s="2"/>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -16570,7 +16582,7 @@
       <c r="G216" s="2"/>
       <c r="H216" s="2"/>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -16580,7 +16592,7 @@
       <c r="G217" s="2"/>
       <c r="H217" s="2"/>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -16590,7 +16602,7 @@
       <c r="G218" s="2"/>
       <c r="H218" s="2"/>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -16600,7 +16612,7 @@
       <c r="G219" s="2"/>
       <c r="H219" s="2"/>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -16610,7 +16622,7 @@
       <c r="G220" s="2"/>
       <c r="H220" s="2"/>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -16620,7 +16632,7 @@
       <c r="G221" s="2"/>
       <c r="H221" s="2"/>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -16630,7 +16642,7 @@
       <c r="G222" s="2"/>
       <c r="H222" s="2"/>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -16640,7 +16652,7 @@
       <c r="G223" s="2"/>
       <c r="H223" s="2"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -16650,7 +16662,7 @@
       <c r="G224" s="2"/>
       <c r="H224" s="2"/>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -16661,6 +16673,13 @@
       <c r="H225" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A225" xr:uid="{5E4B8B31-2AAE-44BA-89F6-0DC376B598C9}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Yes"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -16671,8 +16690,8 @@
   <dimension ref="A1:AC99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16801,7 +16820,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>285</v>
@@ -16884,7 +16903,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>284</v>
@@ -16943,7 +16962,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>285</v>
@@ -17026,7 +17045,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>284</v>
@@ -17083,7 +17102,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>285</v>
@@ -17166,7 +17185,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>284</v>
@@ -17223,7 +17242,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>285</v>
@@ -17306,7 +17325,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>284</v>
@@ -17365,7 +17384,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>285</v>
@@ -17448,7 +17467,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>284</v>
@@ -17505,7 +17524,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>285</v>
@@ -17588,7 +17607,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>284</v>
@@ -17645,7 +17664,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>285</v>
@@ -17728,7 +17747,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>284</v>
@@ -17785,7 +17804,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>285</v>
@@ -17868,7 +17887,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>284</v>
@@ -17925,7 +17944,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>285</v>
@@ -18008,7 +18027,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>284</v>
@@ -18065,7 +18084,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>285</v>
@@ -18148,7 +18167,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>284</v>
@@ -18207,7 +18226,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>285</v>
@@ -18290,7 +18309,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>284</v>
@@ -18347,7 +18366,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>285</v>
@@ -18430,7 +18449,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>284</v>
@@ -18491,7 +18510,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>285</v>
@@ -18574,7 +18593,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>284</v>
@@ -18631,7 +18650,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>285</v>
@@ -18714,7 +18733,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>284</v>
@@ -18771,7 +18790,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>285</v>
@@ -18854,7 +18873,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>284</v>
@@ -18911,7 +18930,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>285</v>
@@ -18994,7 +19013,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>284</v>
@@ -19051,7 +19070,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>285</v>
@@ -19134,7 +19153,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>284</v>
@@ -19205,7 +19224,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>285</v>
@@ -19290,7 +19309,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>285</v>
@@ -19373,7 +19392,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>285</v>
@@ -19458,7 +19477,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>285</v>
@@ -19541,7 +19560,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>285</v>
@@ -19626,7 +19645,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>285</v>
@@ -19709,7 +19728,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C42" s="14" t="s">
         <v>285</v>
@@ -19792,7 +19811,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>285</v>
@@ -19875,7 +19894,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C44" s="14" t="s">
         <v>285</v>
@@ -19958,7 +19977,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C45" s="14" t="s">
         <v>285</v>
@@ -20041,7 +20060,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C46" s="14" t="s">
         <v>285</v>
@@ -20124,7 +20143,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>285</v>
@@ -20207,7 +20226,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C48" s="14" t="s">
         <v>285</v>
@@ -20290,7 +20309,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C49" s="14" t="s">
         <v>285</v>
@@ -20373,7 +20392,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C50" s="14" t="s">
         <v>285</v>
@@ -20622,7 +20641,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>285</v>
@@ -20705,7 +20724,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C54" s="14" t="s">
         <v>285</v>
@@ -20788,7 +20807,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C55" s="14" t="s">
         <v>285</v>
@@ -20871,7 +20890,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C56" s="14" t="s">
         <v>285</v>
@@ -20954,7 +20973,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C57" s="14" t="s">
         <v>285</v>
@@ -21037,7 +21056,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C58" s="14" t="s">
         <v>285</v>
@@ -21120,7 +21139,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C59" s="14" t="s">
         <v>285</v>
@@ -21203,7 +21222,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C60" s="14" t="s">
         <v>285</v>
@@ -21286,7 +21305,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C61" s="14" t="s">
         <v>285</v>
@@ -21369,7 +21388,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C62" s="14" t="s">
         <v>285</v>
@@ -21452,7 +21471,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C63" s="14" t="s">
         <v>285</v>
@@ -21535,7 +21554,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C64" s="14" t="s">
         <v>285</v>
@@ -21618,7 +21637,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C65" s="14" t="s">
         <v>285</v>
@@ -21701,7 +21720,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C66" s="14" t="s">
         <v>285</v>
@@ -21784,7 +21803,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C67" s="14" t="s">
         <v>285</v>
@@ -21867,7 +21886,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C68" s="14" t="s">
         <v>285</v>
@@ -21950,7 +21969,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C69" s="14" t="s">
         <v>285</v>
@@ -22033,7 +22052,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C70" s="14" t="s">
         <v>285</v>
@@ -22116,7 +22135,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C71" s="14" t="s">
         <v>285</v>
@@ -22199,7 +22218,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C72" s="14" t="s">
         <v>285</v>
@@ -22282,7 +22301,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C73" s="14" t="s">
         <v>285</v>
@@ -22365,7 +22384,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C74" s="14" t="s">
         <v>285</v>
@@ -22448,7 +22467,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C75" s="14" t="s">
         <v>285</v>
@@ -22531,7 +22550,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C76" s="14" t="s">
         <v>285</v>
@@ -22616,7 +22635,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C77" s="14" t="s">
         <v>285</v>
@@ -22701,7 +22720,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C78" s="14" t="s">
         <v>285</v>
@@ -22786,7 +22805,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C79" s="14" t="s">
         <v>285</v>
@@ -22871,7 +22890,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C80" s="14" t="s">
         <v>285</v>
@@ -22956,7 +22975,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C81" s="14" t="s">
         <v>285</v>
@@ -23039,7 +23058,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C82" s="14" t="s">
         <v>285</v>
@@ -23122,7 +23141,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C83" s="14" t="s">
         <v>285</v>
@@ -23205,7 +23224,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C84" s="14" t="s">
         <v>285</v>
@@ -23288,7 +23307,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C85" s="14" t="s">
         <v>285</v>
@@ -23371,7 +23390,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C86" s="14" t="s">
         <v>285</v>
@@ -23458,7 +23477,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C87" s="14" t="s">
         <v>285</v>
@@ -23541,7 +23560,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C88" s="14" t="s">
         <v>285</v>
@@ -23624,7 +23643,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C89" s="14" t="s">
         <v>285</v>
@@ -23707,7 +23726,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C90" s="14" t="s">
         <v>285</v>
@@ -23799,7 +23818,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C91" s="14" t="s">
         <v>285</v>
@@ -23882,7 +23901,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C92" s="14" t="s">
         <v>285</v>
@@ -23963,7 +23982,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C93" s="14" t="s">
         <v>285</v>
@@ -24046,7 +24065,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C94" s="14" t="s">
         <v>285</v>
@@ -24127,7 +24146,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C95" s="14" t="s">
         <v>285</v>
@@ -24210,7 +24229,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C96" s="14" t="s">
         <v>285</v>
@@ -24291,7 +24310,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C97" s="14" t="s">
         <v>285</v>
@@ -24372,7 +24391,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C98" s="14" t="s">
         <v>285</v>
@@ -24453,7 +24472,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C99" s="14" t="s">
         <v>285</v>

--- a/DecisionNG/Test_Data.xlsx
+++ b/DecisionNG/Test_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\decision-auto-testing-7.3x\DecisionNG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4749247-E39C-41BD-94EE-4E5520AE8670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AEAA04-9341-43DD-B38C-1F259FB69246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{7DC03C03-E077-4EA9-9951-F44A4407C800}"/>
   </bookViews>
@@ -1865,16 +1865,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2188,7 +2179,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B105" sqref="B105"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3147,7 +3138,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B22" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3191,7 +3182,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B23" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3235,7 +3226,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B24" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3279,7 +3270,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B25" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3323,7 +3314,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B26" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3367,7 +3358,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B27" s="2" t="str">
         <f>"Tasks_AddFT_"&amp;E27&amp;"_"&amp;F27&amp;"_"&amp;G27&amp;"_"&amp;H27</f>
@@ -3411,7 +3402,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B28" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3455,7 +3446,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B29" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3499,7 +3490,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B30" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3546,7 +3537,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B31" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3593,7 +3584,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B32" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3640,7 +3631,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B33" s="2" t="str">
         <f>"Tasks_AddFT_"&amp;E33&amp;"_"&amp;F33&amp;"_"&amp;G33&amp;"_"&amp;H33</f>
@@ -3687,7 +3678,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B34" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3731,7 +3722,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B35" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3778,7 +3769,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B36" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3825,7 +3816,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B37" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3872,7 +3863,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B38" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3919,7 +3910,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B39" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3966,7 +3957,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B40" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4010,7 +4001,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B41" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4057,7 +4048,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B42" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4104,7 +4095,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B43" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4151,7 +4142,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B44" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4198,7 +4189,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B45" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4245,7 +4236,7 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B46" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4292,7 +4283,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B47" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4339,7 +4330,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B48" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4386,7 +4377,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B49" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4430,7 +4421,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B50" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4474,7 +4465,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B51" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4518,7 +4509,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B52" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4562,7 +4553,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B53" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4606,7 +4597,7 @@
     </row>
     <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B54" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4653,7 +4644,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B55" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4700,7 +4691,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B56" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4747,7 +4738,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B57" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4791,7 +4782,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B58" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4838,7 +4829,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B59" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4885,7 +4876,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B60" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4932,7 +4923,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B61" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4976,7 +4967,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B62" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5020,7 +5011,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B63" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5067,7 +5058,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B64" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5114,7 +5105,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B65" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5208,7 +5199,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B67" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5299,7 +5290,7 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B69" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5346,7 +5337,7 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B70" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5393,7 +5384,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B71" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5440,7 +5431,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B72" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5487,7 +5478,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B73" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5534,7 +5525,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B74" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5581,7 +5572,7 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B75" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5628,7 +5619,7 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B76" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5675,7 +5666,7 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B77" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5719,7 +5710,7 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B78" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5763,7 +5754,7 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B79" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5807,7 +5798,7 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B80" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5851,7 +5842,7 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B81" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5895,7 +5886,7 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B82" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5942,7 +5933,7 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B83" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5989,7 +5980,7 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B84" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6036,7 +6027,7 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B85" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6080,7 +6071,7 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B86" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6127,7 +6118,7 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B87" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6174,7 +6165,7 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B88" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6221,7 +6212,7 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B89" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6265,7 +6256,7 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B90" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6309,7 +6300,7 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B91" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6356,7 +6347,7 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B92" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6403,7 +6394,7 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B93" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6497,7 +6488,7 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B95" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6588,7 +6579,7 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B97" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6635,7 +6626,7 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B98" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6682,7 +6673,7 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B99" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6729,7 +6720,7 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B100" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6776,7 +6767,7 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B101" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6823,7 +6814,7 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B102" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6870,7 +6861,7 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B103" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6917,7 +6908,7 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B104" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6964,7 +6955,7 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B105" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7008,7 +6999,7 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B106" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7052,7 +7043,7 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B107" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7096,7 +7087,7 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B108" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7140,7 +7131,7 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B109" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7184,7 +7175,7 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B110" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7231,7 +7222,7 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B111" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7278,7 +7269,7 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B112" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7325,7 +7316,7 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B113" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7369,7 +7360,7 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B114" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7413,7 +7404,7 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B115" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7457,7 +7448,7 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B116" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7501,7 +7492,7 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B117" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7545,7 +7536,7 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B118" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7589,7 +7580,7 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B119" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7633,7 +7624,7 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B120" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7677,7 +7668,7 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B121" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7721,7 +7712,7 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B122" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7765,7 +7756,7 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B123" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7809,7 +7800,7 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B124" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7853,7 +7844,7 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B125" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7897,7 +7888,7 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B126" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7941,7 +7932,7 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B127" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7985,7 +7976,7 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B128" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8029,7 +8020,7 @@
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B129" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8073,7 +8064,7 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B130" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8117,7 +8108,7 @@
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B131" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8161,7 +8152,7 @@
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B132" s="2" t="str">
         <f t="shared" ref="B132:B145" si="6">"Tasks_AddFT_"&amp;E132&amp;"_"&amp;F132&amp;"_"&amp;G132&amp;"_"&amp;H132</f>
@@ -8205,7 +8196,7 @@
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B133" s="2" t="str">
         <f t="shared" si="6"/>
@@ -8249,7 +8240,7 @@
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B134" s="2" t="str">
         <f t="shared" si="6"/>
@@ -8293,7 +8284,7 @@
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B135" s="2" t="str">
         <f t="shared" si="6"/>
@@ -8337,7 +8328,7 @@
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B136" s="2" t="str">
         <f t="shared" si="6"/>
@@ -8381,7 +8372,7 @@
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B137" s="2" t="str">
         <f t="shared" si="6"/>
@@ -8425,7 +8416,7 @@
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B138" s="2" t="str">
         <f t="shared" si="6"/>
@@ -8469,7 +8460,7 @@
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B139" s="2" t="str">
         <f t="shared" si="6"/>
@@ -8513,7 +8504,7 @@
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B140" s="2" t="str">
         <f t="shared" si="6"/>
@@ -8557,7 +8548,7 @@
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B141" s="2" t="str">
         <f t="shared" si="6"/>
@@ -8601,7 +8592,7 @@
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B142" s="2" t="str">
         <f t="shared" si="6"/>
@@ -8648,7 +8639,7 @@
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B143" s="2" t="str">
         <f t="shared" si="6"/>
@@ -8695,7 +8686,7 @@
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B144" s="2" t="str">
         <f t="shared" si="6"/>
@@ -8742,7 +8733,7 @@
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B145" s="2" t="str">
         <f t="shared" si="6"/>
@@ -8789,7 +8780,7 @@
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B146" s="2" t="str">
         <f>"Tasks_AddFT_"&amp;E146&amp;"_"&amp;F146&amp;"_"&amp;G146&amp;"_"&amp;H146</f>
@@ -8836,7 +8827,7 @@
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B147" s="2" t="str">
         <f t="shared" ref="B147:B210" si="9">"Tasks_AddFT_"&amp;E147&amp;"_"&amp;F147&amp;"_"&amp;G147&amp;"_"&amp;H147</f>
@@ -8883,7 +8874,7 @@
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B148" s="2" t="str">
         <f t="shared" si="9"/>
@@ -8930,7 +8921,7 @@
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B149" s="2" t="str">
         <f t="shared" si="9"/>
@@ -8977,7 +8968,7 @@
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B150" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9024,7 +9015,7 @@
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B151" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9071,7 +9062,7 @@
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B152" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9118,7 +9109,7 @@
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B153" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9165,7 +9156,7 @@
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B154" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9212,7 +9203,7 @@
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B155" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9259,7 +9250,7 @@
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B156" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9306,7 +9297,7 @@
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B157" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9353,7 +9344,7 @@
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B158" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9400,7 +9391,7 @@
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B159" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9447,7 +9438,7 @@
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B160" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9494,7 +9485,7 @@
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B161" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9538,7 +9529,7 @@
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B162" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9582,7 +9573,7 @@
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B163" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9626,7 +9617,7 @@
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B164" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9670,7 +9661,7 @@
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B165" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9714,7 +9705,7 @@
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B166" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9761,7 +9752,7 @@
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B167" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9808,7 +9799,7 @@
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B168" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9855,7 +9846,7 @@
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B169" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9899,7 +9890,7 @@
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B170" s="2" t="str">
         <f>"Tasks_AddFT_"&amp;E170&amp;"_"&amp;F170&amp;"_"&amp;G170&amp;"_"&amp;H170</f>
@@ -9946,7 +9937,7 @@
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B171" s="2" t="str">
         <f t="shared" si="9"/>
@@ -9993,7 +9984,7 @@
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B172" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10040,7 +10031,7 @@
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B173" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10087,7 +10078,7 @@
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B174" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10134,7 +10125,7 @@
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B175" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10181,7 +10172,7 @@
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B176" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10228,7 +10219,7 @@
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B177" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10275,7 +10266,7 @@
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B178" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10322,7 +10313,7 @@
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B179" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10416,7 +10407,7 @@
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B181" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10463,7 +10454,7 @@
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B182" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10510,7 +10501,7 @@
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B183" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10557,7 +10548,7 @@
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B184" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10604,7 +10595,7 @@
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B185" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10651,7 +10642,7 @@
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B186" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10698,7 +10689,7 @@
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B187" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10745,7 +10736,7 @@
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B188" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10792,7 +10783,7 @@
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B189" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10836,7 +10827,7 @@
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B190" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10880,7 +10871,7 @@
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B191" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10924,7 +10915,7 @@
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B192" s="2" t="str">
         <f t="shared" si="9"/>
@@ -10968,7 +10959,7 @@
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B193" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11012,7 +11003,7 @@
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B194" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11059,7 +11050,7 @@
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B195" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11106,7 +11097,7 @@
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B196" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11153,7 +11144,7 @@
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B197" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11197,7 +11188,7 @@
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B198" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11244,7 +11235,7 @@
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B199" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11291,7 +11282,7 @@
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B200" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11338,7 +11329,7 @@
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B201" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11382,7 +11373,7 @@
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B202" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11426,7 +11417,7 @@
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B203" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11473,7 +11464,7 @@
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B204" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11520,7 +11511,7 @@
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B205" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11567,7 +11558,7 @@
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B206" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11614,7 +11605,7 @@
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B207" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11705,7 +11696,7 @@
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B209" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11752,7 +11743,7 @@
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B210" s="2" t="str">
         <f t="shared" si="9"/>
@@ -11799,7 +11790,7 @@
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B211" s="2" t="str">
         <f t="shared" ref="B211:B225" si="12">"Tasks_AddFT_"&amp;E211&amp;"_"&amp;F211&amp;"_"&amp;G211&amp;"_"&amp;H211</f>
@@ -11846,7 +11837,7 @@
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B212" s="2" t="str">
         <f t="shared" si="12"/>
@@ -11893,7 +11884,7 @@
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B213" s="2" t="str">
         <f t="shared" si="12"/>
@@ -11940,7 +11931,7 @@
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B214" s="2" t="str">
         <f t="shared" si="12"/>
@@ -11987,7 +11978,7 @@
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B215" s="2" t="str">
         <f t="shared" si="12"/>
@@ -12034,7 +12025,7 @@
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B216" s="2" t="str">
         <f t="shared" si="12"/>
@@ -12081,7 +12072,7 @@
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B217" s="2" t="str">
         <f t="shared" si="12"/>
@@ -12125,7 +12116,7 @@
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B218" s="2" t="str">
         <f t="shared" si="12"/>
@@ -12169,7 +12160,7 @@
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B219" s="2" t="str">
         <f t="shared" si="12"/>
@@ -12213,7 +12204,7 @@
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B220" s="2" t="str">
         <f t="shared" si="12"/>
@@ -12257,7 +12248,7 @@
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B221" s="2" t="str">
         <f t="shared" si="12"/>
@@ -12301,7 +12292,7 @@
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B222" s="2" t="str">
         <f t="shared" si="12"/>
@@ -12348,7 +12339,7 @@
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B223" s="2" t="str">
         <f t="shared" si="12"/>
@@ -12395,7 +12386,7 @@
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B224" s="2" t="str">
         <f t="shared" si="12"/>
@@ -12442,7 +12433,7 @@
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B225" s="2" t="str">
         <f t="shared" si="12"/>
